--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\must-do-coding-questions-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414804F4-22B8-4954-BD57-1B4454B5C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4348EA9D-E423-4851-AA45-4EF1AC8B038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="339">
   <si>
     <t>Problem</t>
   </si>
@@ -730,6 +730,363 @@
   </si>
   <si>
     <t>just dry run for few test cases for noticing pattern</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Find the element that appears once in sorted array</t>
+  </si>
+  <si>
+    <t>Search in a Rotated Array</t>
+  </si>
+  <si>
+    <t>Length of longest subarray with positive product</t>
+  </si>
+  <si>
+    <t>See hint in Leetcode</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Find median in a stream</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>25-1-22</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Sorting Elements of an Array by Frequency</t>
+  </si>
+  <si>
+    <t>Common Elements</t>
+  </si>
+  <si>
+    <t>Relative Sorting</t>
+  </si>
+  <si>
+    <t>Largest subarray with 0 sum</t>
+  </si>
+  <si>
+    <t>Count pairs with given sum</t>
+  </si>
+  <si>
+    <t>Find All Four Sum Numbers</t>
+  </si>
+  <si>
+    <t>Swapping pairs make sum equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count distinct elements in every window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array Pair Sum Divisibility Problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Heap Operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge K sorted linked lists </t>
+  </si>
+  <si>
+    <t>Kth largest element in a stream</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>TC for build heap = O(N)</t>
+  </si>
+  <si>
+    <t>article - gfg</t>
+  </si>
+  <si>
+    <t>Time complexity to build heap from array is O(N)</t>
+  </si>
+  <si>
+    <t>Rearrange characters</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T V Imp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Middle Elements of two sorted arrays </t>
+  </si>
+  <si>
+    <t>Solve it in logN, see solution video - great explanation</t>
+  </si>
+  <si>
+    <t>Do Median of Two Sorted Arrays ques first, then its piece of cake</t>
+  </si>
+  <si>
+    <t>K-th element of two sorted Arrays</t>
+  </si>
+  <si>
+    <t>Do Median of Two Sorted Arrays ques first, think how to modify it to solve this ques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Sort </t>
+  </si>
+  <si>
+    <t>See random Quick sort</t>
+  </si>
+  <si>
+    <t>Find all pairs with a given sum</t>
+  </si>
+  <si>
+    <t>Array Subset of another array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest consecutive subsequence </t>
+  </si>
+  <si>
+    <t>Find first repeated character</t>
+  </si>
+  <si>
+    <t>Practice 1 (Code Again)</t>
+  </si>
+  <si>
+    <t>Mock</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>See it wrt x</t>
+  </si>
+  <si>
+    <t>Dynamic Proramming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Operations </t>
+  </si>
+  <si>
+    <t>My Must - Arrays</t>
+  </si>
+  <si>
+    <t>Stock buy and sell - max 1 transaction</t>
+  </si>
+  <si>
+    <t>See eclipse solution</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>see leetcode solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Increasing Subsequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max length chain </t>
+  </si>
+  <si>
+    <t>Prereq- Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of Coins </t>
+  </si>
+  <si>
+    <t>Used greedy, couldn't find generic DP Solution</t>
+  </si>
+  <si>
+    <t>See recursive solutin on gfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Subsequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - 1 Knapsack Problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum increasing subsequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of jumps </t>
+  </si>
+  <si>
+    <t>Try to understand from code + video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Distance </t>
+  </si>
+  <si>
+    <t>Try tabular method too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin Change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition Equal Subset Sum </t>
+  </si>
+  <si>
+    <t>Box stacking</t>
+  </si>
+  <si>
+    <t>Rod cutting</t>
+  </si>
+  <si>
+    <t>Path in Matrix</t>
+  </si>
+  <si>
+    <t>Minimum Sum Partition</t>
+  </si>
+  <si>
+    <t>Count number of ways to cover a distance</t>
+  </si>
+  <si>
+    <t>Egg Dropping Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest Common Supersequence </t>
+  </si>
+  <si>
+    <t>How box can be rearranged, eliminate unnecessary boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Strategy For A Game </t>
+  </si>
+  <si>
+    <t>21-5-2022</t>
+  </si>
+  <si>
+    <t>22/5/2022</t>
+  </si>
+  <si>
+    <t>Good explanation in video</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Selection </t>
+  </si>
+  <si>
+    <t>22-5-2022</t>
+  </si>
+  <si>
+    <t>N meetings in one room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose and Swap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize Toys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Faults in LRU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest number possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize the Heights II </t>
+  </si>
+  <si>
+    <t>see video for exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize the sum of product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop in Candy Store </t>
+  </si>
+  <si>
+    <t>14-06-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Spanning Tree </t>
+  </si>
+  <si>
+    <t>To be done while solving graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huffman Decoding-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geek collects the balls </t>
+  </si>
+  <si>
+    <t>Skipped, solution not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count pairs with given sum </t>
+  </si>
+  <si>
+    <t>14-6-2022</t>
+  </si>
+  <si>
+    <t>See solution without space - upper and lower bound</t>
+  </si>
+  <si>
+    <t>GRAPH</t>
+  </si>
+  <si>
+    <t>Depth First Traversal</t>
+  </si>
+  <si>
+    <t>16-6-2022</t>
+  </si>
+  <si>
+    <t>Breadth First Traversal</t>
+  </si>
+  <si>
+    <t>Detect cycle in undirected graph</t>
+  </si>
+  <si>
+    <t>Check both DFS and BFS solution</t>
+  </si>
+  <si>
+    <t>video DFS</t>
+  </si>
+  <si>
+    <t>video BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect cycle in a directed graph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topological sort </t>
+  </si>
+  <si>
+    <t>My Must - Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Provinces </t>
+  </si>
+  <si>
+    <t>18-6-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the number of islands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing Dijkstra Algorithm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Swaps to Sort </t>
+  </si>
+  <si>
+    <t>Strongly Connected Components</t>
+  </si>
+  <si>
+    <t>19-6-2022</t>
   </si>
 </sst>
 </file>
@@ -835,7 +1192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,6 +1325,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -991,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,13 +1444,24 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1093,13 +1491,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1158,13 +1556,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1223,13 +1621,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198438</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1288,13 +1686,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>420688</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1353,13 +1751,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2635250</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3079750</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1418,13 +1816,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1963615</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2293327</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>183173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1483,13 +1881,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2527788</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1810,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I203" sqref="I203"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,21 +2222,22 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="122.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
@@ -1861,11 +2260,17 @@
         <v>5</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1880,9 +2285,12 @@
       <c r="H8" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="J8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1900,9 +2308,12 @@
       <c r="H9" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="J9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1917,9 +2328,12 @@
       <c r="H10" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="J10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1935,7 +2349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1955,7 +2369,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1975,8 +2389,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1994,9 +2408,12 @@
       <c r="H14" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="I14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2015,8 +2432,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="42">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2033,7 +2450,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="42">
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2050,7 +2467,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="42">
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2067,7 +2484,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="42">
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2090,7 +2507,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="42">
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2117,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>6</v>
@@ -2127,7 +2544,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="42">
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2147,7 +2564,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="42">
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2164,7 +2581,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="42">
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2181,14 +2598,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="42">
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>6</v>
@@ -2282,105 +2699,125 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B35" s="19" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="40">
+        <v>44661</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>319</v>
+      </c>
+      <c r="I34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B37" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B39" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D39" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E39" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H39" s="16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="20">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="20">
-        <v>44345</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H41" s="20">
-        <v>44346</v>
+        <v>44345</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="20">
+        <v>44345</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>6</v>
@@ -2391,30 +2828,18 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="20">
-        <v>44346</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>15</v>
@@ -2428,13 +2853,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>6</v>
@@ -2445,16 +2873,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>6</v>
@@ -2462,19 +2887,16 @@
       <c r="H47" s="20">
         <v>44346</v>
       </c>
-      <c r="I47" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>6</v>
@@ -2485,13 +2907,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>6</v>
@@ -2499,16 +2924,19 @@
       <c r="H49" s="20">
         <v>44346</v>
       </c>
+      <c r="I49" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>6</v>
@@ -2519,13 +2947,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>6</v>
@@ -2534,57 +2962,51 @@
         <v>44346</v>
       </c>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="20">
+        <v>44346</v>
+      </c>
+    </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="37" t="s">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="20">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="37" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
@@ -2595,83 +3017,109 @@
       <c r="G56" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B60" s="22" t="s">
+      <c r="I56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="40">
+        <v>44675</v>
+      </c>
+      <c r="I59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B62" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I61" s="16" t="s">
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I63" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B64" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D64" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E64" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F64" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G64" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H64" s="16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="20">
-        <v>44347</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="20">
-        <v>44347</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>8</v>
@@ -2685,13 +3133,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>6</v>
@@ -2702,13 +3150,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>6</v>
@@ -2719,16 +3167,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>6</v>
@@ -2739,36 +3184,36 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" s="26" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H70" s="20">
-        <v>44348</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H71" s="20">
         <v>44347</v>
@@ -2776,113 +3221,104 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="H72" s="20">
-        <v>44350</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="H73" s="20">
-        <v>44348</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H74" s="20">
-        <v>44348</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>8</v>
+        <v>75</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H75" s="20">
-        <v>44349</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>85</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="H76" s="20">
-        <v>44349</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>6</v>
@@ -2890,19 +3326,28 @@
       <c r="H77" s="20">
         <v>44349</v>
       </c>
+      <c r="I77" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="H78" s="20">
         <v>44349</v>
@@ -2910,16 +3355,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>8</v>
+      <c r="F79" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>6</v>
@@ -2930,30 +3375,30 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>11</v>
+        <v>87</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H80" s="20">
-        <v>44350</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>8</v>
@@ -2964,109 +3409,106 @@
       <c r="H81" s="20">
         <v>44349</v>
       </c>
-      <c r="I81" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>17</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="20">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>18</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="20">
+        <v>44349</v>
+      </c>
+      <c r="I83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>19</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F82" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="20">
+      <c r="F84" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="20">
         <v>44355</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B86" s="27" t="s">
+    <row r="88" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B88" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I87" s="16" t="s">
+    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I89" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B90" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C90" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D90" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E90" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F90" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G90" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H88" s="16" t="s">
+      <c r="H90" s="16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H90" s="20">
-        <v>44353</v>
-      </c>
-      <c r="I90" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F91" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="20">
-        <v>44354</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>8</v>
@@ -3074,13 +3516,22 @@
       <c r="G92" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H92" s="20">
+        <v>44353</v>
+      </c>
+      <c r="I92" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F93" s="21" t="s">
         <v>11</v>
@@ -3089,70 +3540,58 @@
         <v>6</v>
       </c>
       <c r="H93" s="20">
-        <v>44355</v>
-      </c>
-      <c r="I93" t="s">
-        <v>103</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="H94" s="20">
-        <v>44356</v>
-      </c>
-      <c r="I94" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>4</v>
+      <c r="F95" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H95" s="20">
-        <v>44356</v>
+        <v>44355</v>
+      </c>
+      <c r="I95" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F96" s="21" t="s">
-        <v>11</v>
+      <c r="D96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>6</v>
@@ -3161,21 +3600,21 @@
         <v>44356</v>
       </c>
       <c r="I96" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>11</v>
+        <v>101</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>6</v>
@@ -3189,13 +3628,13 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>24</v>
+      <c r="F98" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>6</v>
@@ -3203,95 +3642,98 @@
       <c r="H98" s="20">
         <v>44356</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B104" s="18" t="s">
+      <c r="I98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="20">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="20">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B106" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
+    <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B108" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C108" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D108" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E108" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F108" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="16" t="s">
+      <c r="G108" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H106" s="16" t="s">
+      <c r="H108" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I107" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="20">
-        <v>44357</v>
-      </c>
-      <c r="I108" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>2</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H109" s="20">
-        <v>44357</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>11</v>
+        <v>112</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>6</v>
@@ -3300,15 +3742,15 @@
         <v>44357</v>
       </c>
       <c r="I110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2</v>
@@ -3320,42 +3762,39 @@
         <v>6</v>
       </c>
       <c r="H111" s="20">
-        <v>44358</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="20">
+        <v>44357</v>
+      </c>
+      <c r="I112" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="20">
-        <v>44360</v>
-      </c>
-      <c r="I112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>6</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F113" s="21" t="s">
         <v>11</v>
       </c>
@@ -3363,41 +3802,44 @@
         <v>6</v>
       </c>
       <c r="H113" s="20">
-        <v>44361</v>
-      </c>
-      <c r="I113" t="s">
-        <v>125</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H114" s="20">
-        <v>44361</v>
-      </c>
-      <c r="I114" s="29" t="s">
-        <v>128</v>
+        <v>44360</v>
+      </c>
+      <c r="I114" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>6</v>
@@ -3406,15 +3848,15 @@
         <v>44361</v>
       </c>
       <c r="I115" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F116" s="21" t="s">
         <v>11</v>
@@ -3423,163 +3865,183 @@
         <v>6</v>
       </c>
       <c r="H116" s="20">
-        <v>44362</v>
-      </c>
-      <c r="I116" t="s">
-        <v>132</v>
+        <v>44361</v>
+      </c>
+      <c r="I116" s="29" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="20">
+        <v>44361</v>
+      </c>
+      <c r="I117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>9</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="20">
+        <v>44362</v>
+      </c>
+      <c r="I118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>10</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F119" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H117" s="20">
+      <c r="G119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="20">
         <v>44362</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B121" s="19" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>11</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="20">
+        <v>44570</v>
+      </c>
+      <c r="I120" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>12</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="20">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>13</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B125" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="16" t="s">
+    <row r="127" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B127" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C127" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D127" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E127" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="16" t="s">
+      <c r="F127" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="16" t="s">
+      <c r="G127" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H123" s="16" t="s">
+      <c r="H127" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>1</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F129" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H125" s="20">
+      <c r="G129" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" s="20">
         <v>44362</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>2</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H126" s="20">
-        <v>44362</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="38">
-        <v>3</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H127" s="20">
-        <v>44362</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>4</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H128" s="20">
-        <v>44363</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="38">
-        <v>5</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H129" s="20">
-        <v>44363</v>
-      </c>
-      <c r="I129" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>15</v>
@@ -3588,52 +4050,61 @@
         <v>137</v>
       </c>
       <c r="H130" s="20">
-        <v>44363</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>7</v>
+      <c r="A131" s="38">
+        <v>3</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H131" s="20">
-        <v>44363</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G132" s="8" t="s">
-        <v>137</v>
+      <c r="G132" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H132" s="20">
         <v>44363</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>9</v>
+      <c r="A133" s="38">
+        <v>5</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>8</v>
+        <v>139</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>6</v>
@@ -3642,21 +4113,21 @@
         <v>44363</v>
       </c>
       <c r="I133" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>6</v>
+        <v>144</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H134" s="20">
         <v>44363</v>
@@ -3664,16 +4135,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F135" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H135" s="20">
         <v>44363</v>
@@ -3681,135 +4152,138 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G136" s="30" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H136" s="20">
         <v>44363</v>
       </c>
-      <c r="I136" t="s">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" s="20">
+        <v>44363</v>
+      </c>
+      <c r="I137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>10</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F138" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" s="20">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>11</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="20">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>12</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G140" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H140" s="20">
+        <v>44363</v>
+      </c>
+      <c r="I140" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B142" s="32" t="s">
+    <row r="146" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B146" s="32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A144" s="16" t="s">
+    <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A148" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B148" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="16" t="s">
+      <c r="C148" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D144" s="16" t="s">
+      <c r="D148" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E148" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F144" s="16" t="s">
+      <c r="F148" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="16" t="s">
+      <c r="G148" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H144" s="16" t="s">
+      <c r="H148" s="16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H146" s="20">
-        <v>44382</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>2</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H147" s="20">
-        <v>44382</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>3</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H148" s="20">
-        <v>44382</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>4</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F149" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H149" s="20">
-        <v>44382</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G150" s="8" t="s">
-        <v>137</v>
+      <c r="G150" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H150" s="20">
         <v>44382</v>
@@ -3817,10 +4291,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>15</v>
@@ -3829,15 +4303,15 @@
         <v>137</v>
       </c>
       <c r="H151" s="20">
-        <v>44383</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>15</v>
@@ -3846,243 +4320,228 @@
         <v>137</v>
       </c>
       <c r="H152" s="20">
-        <v>44383</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F153" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="G153" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H153" s="20">
-        <v>44383</v>
-      </c>
-      <c r="I153" t="s">
-        <v>166</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F154" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>6</v>
+        <v>162</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H154" s="20">
-        <v>44384</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F155" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>6</v>
+        <v>163</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H155" s="20">
-        <v>44385</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>6</v>
+        <v>164</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H156" s="20">
-        <v>44385</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>137</v>
+        <v>165</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H157" s="20">
-        <v>44385</v>
+        <v>44383</v>
+      </c>
+      <c r="I157" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
+        <v>9</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F158" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H158" s="20">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>10</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="20">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>11</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" s="20">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>12</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H161" s="20">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>13</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F162" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G158" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H158" s="20">
+      <c r="G162" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H162" s="20">
         <v>44387</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I162" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B165" s="33" t="s">
+    <row r="169" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B169" s="33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A167" s="16" t="s">
+    <row r="171" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A171" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B171" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C171" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D167" s="16" t="s">
+      <c r="D171" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E171" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F167" s="16" t="s">
+      <c r="F171" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G167" s="16" t="s">
+      <c r="G171" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H167" s="16" t="s">
+      <c r="H171" s="16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F169" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H169" s="20">
-        <v>44403</v>
-      </c>
-      <c r="I169" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>2</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F170" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H170" s="20">
-        <v>44403</v>
-      </c>
-      <c r="I170" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>3</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H171" s="20">
-        <v>44404</v>
-      </c>
-      <c r="I171" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>4</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H172" s="20">
-        <v>44404</v>
-      </c>
-      <c r="I172" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F173" s="21" t="s">
         <v>11</v>
@@ -4091,15 +4550,21 @@
         <v>6</v>
       </c>
       <c r="H173" s="20">
-        <v>44404</v>
+        <v>44403</v>
+      </c>
+      <c r="I173" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F174" s="21" t="s">
         <v>11</v>
@@ -4108,21 +4573,21 @@
         <v>6</v>
       </c>
       <c r="H174" s="20">
-        <v>44408</v>
+        <v>44403</v>
       </c>
       <c r="I174" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>8</v>
+        <v>180</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>6</v>
@@ -4130,24 +4595,39 @@
       <c r="H175" s="20">
         <v>44404</v>
       </c>
+      <c r="I175" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176" t="s">
-        <v>187</v>
+        <v>4</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H176" s="20">
+        <v>44404</v>
+      </c>
+      <c r="I176" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F177" s="13" t="s">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>6</v>
@@ -4158,10 +4638,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F178" s="21" t="s">
         <v>11</v>
@@ -4170,21 +4650,21 @@
         <v>6</v>
       </c>
       <c r="H178" s="20">
-        <v>44404</v>
+        <v>44408</v>
       </c>
       <c r="I178" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F179" s="34" t="s">
-        <v>15</v>
+        <v>186</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>6</v>
@@ -4195,18 +4675,18 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F181" s="13" t="s">
         <v>8</v>
@@ -4215,221 +4695,1792 @@
         <v>6</v>
       </c>
       <c r="H181" s="20">
-        <v>44406</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F182" s="35" t="s">
-        <v>15</v>
+        <v>190</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H182" s="20">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="I182" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
+        <v>11</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F183" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="G183" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H183" s="20">
-        <v>44406</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
+        <v>12</v>
+      </c>
+      <c r="B184" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>13</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F185" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" s="20">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>14</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F186" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H186" s="20">
+        <v>44405</v>
+      </c>
+      <c r="I186" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>15</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F187" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="20">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>16</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B188" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>1</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F189" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B195" s="27" t="s">
+      <c r="F193" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B199" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A197" s="16" t="s">
+    <row r="201" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A201" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B201" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C197" s="16" t="s">
+      <c r="C201" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D197" s="16" t="s">
+      <c r="D201" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E201" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F197" s="16" t="s">
+      <c r="F201" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G197" s="16" t="s">
+      <c r="G201" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H197" s="16" t="s">
+      <c r="H201" s="16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F199" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H199" s="20">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>2</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H200" s="20">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>3</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H201" s="20">
-        <v>44509</v>
-      </c>
-      <c r="I201" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>4</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H202" s="20">
-        <v>44509</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F203" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F203" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H203" s="20">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F204" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G203" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H203" s="20">
+      <c r="G204" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H204" s="20">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="20">
         <v>44509</v>
       </c>
-      <c r="I203" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="37" t="s">
-        <v>215</v>
+      <c r="I205" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F206" s="21" t="s">
-        <v>11</v>
+      <c r="F206" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H206" s="20">
         <v>44509</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H207" s="20">
+        <v>44509</v>
+      </c>
+      <c r="I207" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H210" s="20">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B217" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A219" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B219" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G219" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H219" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="20">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F222" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" s="40">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H223" s="40">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>4</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H224" s="40">
+        <v>44639</v>
+      </c>
+      <c r="I224" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>5</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H225" s="40">
+        <v>44639</v>
+      </c>
+      <c r="I225" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>6</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H226" s="40">
+        <v>44639</v>
+      </c>
+      <c r="I226" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>7</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="40">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>8</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F228" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H228" s="40">
+        <v>44639</v>
+      </c>
+      <c r="I228" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B231" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A233" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B233" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D233" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E233" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G233" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H233" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H235" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H236" s="40">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F237" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H237" s="40">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>4</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F238" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H238" s="40">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>5</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H239" s="40">
+        <v>44625</v>
+      </c>
+      <c r="I239" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>6</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H240" s="40">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B245" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A247" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B247" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H247" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H249" s="40">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F250" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H250" s="40">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F251" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H251" s="40">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>4</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F252" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H252" s="40">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>5</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F253" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H253" s="40">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>6</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H254" s="40">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>7</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F255" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H255" s="40">
+        <v>44618</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>8</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>9</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F257" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H257" s="40">
+        <v>44618</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>10</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F258" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H258" s="40">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>11</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H259" s="40">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>12</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H260" s="40">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>13</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H261" s="40">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B277" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A280" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D280" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G280" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H280" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F282" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H282" s="40">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H283" s="40">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H284" s="40">
+        <v>44681</v>
+      </c>
+      <c r="I284" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>4</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F285" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H285" s="40">
+        <v>44684</v>
+      </c>
+      <c r="I285" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F286" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H286" s="40">
+        <v>44684</v>
+      </c>
+      <c r="I286" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>6</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G287" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H287" s="40">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>7</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F288" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H288" s="40">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>8</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F289" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G289" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H289" s="40">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>9</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F290" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H290" s="40">
+        <v>44686</v>
+      </c>
+      <c r="I290" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>10</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G291" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H291" s="40">
+        <v>44684</v>
+      </c>
+      <c r="I291" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>11</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H292" s="40">
+        <v>44684</v>
+      </c>
+      <c r="I292" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>12</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F293" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G293" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H293" s="40">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>13</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F294" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H294" s="40">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>14</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H295" s="43">
+        <v>44700</v>
+      </c>
+      <c r="I295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>15</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F296" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H296" s="43">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>16</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>17</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F298" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>18</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F299" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G299" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H299" s="43">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>19</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H300" s="40">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>20</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H301" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="I301" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>21</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F302" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H302" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B311" s="44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A313" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B313" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D313" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E313" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G313" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H313" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F315" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H315" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F316" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H316" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>3</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F317" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H317" s="43">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>4</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F318" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G318" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>5</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F319" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H319" s="43">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>6</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F320" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G320" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>7</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H321" s="43">
+        <v>44871</v>
+      </c>
+      <c r="I321" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>8</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F322" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G322" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>9</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="45">
+        <v>10</v>
+      </c>
+      <c r="B324" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="C324" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="D324" s="45"/>
+      <c r="E324" s="45"/>
+      <c r="F324" s="45"/>
+      <c r="G324" s="45"/>
+      <c r="H324" s="45"/>
+      <c r="I324" s="45"/>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>11</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F325" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H325" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="47">
+        <v>12</v>
+      </c>
+      <c r="B326" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C326" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="D326" s="47"/>
+      <c r="E326" s="47"/>
+      <c r="F326" s="47"/>
+      <c r="G326" s="47"/>
+      <c r="H326" s="47"/>
+    </row>
+    <row r="333" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B333" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A335" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B335" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D335" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G335" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H335" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F337" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H337" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F338" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H338" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>3</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F339" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H339" t="s">
+        <v>323</v>
+      </c>
+      <c r="I339" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>4</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F340" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H340" t="s">
+        <v>323</v>
+      </c>
+      <c r="I340" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>5</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F341" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H341" t="s">
+        <v>323</v>
+      </c>
+      <c r="I341" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>6</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F342" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H342" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>7</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H343" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>8</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F344" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H344" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>9</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H345" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B350" s="37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F352" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H352" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4466,142 +6517,244 @@
     <hyperlink ref="B28" r:id="rId30" xr:uid="{9D016A26-DD50-49D7-8FA5-FF3016741B27}"/>
     <hyperlink ref="B29" r:id="rId31" xr:uid="{7F88EFA9-9110-4746-B7CF-DF4424C5096B}"/>
     <hyperlink ref="C12" r:id="rId32" xr:uid="{09B84230-39E8-4A13-A181-3916C30DDACB}"/>
-    <hyperlink ref="B39" r:id="rId33" xr:uid="{8E207AE5-9EAD-432D-8B4A-C9EF568F61D1}"/>
-    <hyperlink ref="B40" r:id="rId34" xr:uid="{161B4C7B-3BB6-4265-8B90-2BC40A735319}"/>
-    <hyperlink ref="B41" r:id="rId35" xr:uid="{238E0413-3A3E-47AE-9921-4B52C3B61472}"/>
-    <hyperlink ref="B42" r:id="rId36" xr:uid="{CF172B52-4773-4EAE-B54E-3E04FE30DAD6}"/>
-    <hyperlink ref="B43" r:id="rId37" xr:uid="{16645B45-59EB-4634-8DEA-08703BAAB54A}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{CA63F458-AB31-4852-B8E8-539B5177BF60}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{71625C48-5AD8-44E7-A01C-AD244BBED96E}"/>
-    <hyperlink ref="B48" r:id="rId40" xr:uid="{5B8AEE57-E1B8-423B-B6E2-24958986284B}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{BF2D2EE9-5A08-4A80-866B-C18068D64C7A}"/>
-    <hyperlink ref="C47" r:id="rId42" xr:uid="{B4C3A567-11E1-4327-8CCD-49EA6A8E19D5}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{9BA45C0E-8027-4E24-9D02-AD7623EB37B8}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{AAB5C309-3325-4C00-B2FC-9BB537891C98}"/>
-    <hyperlink ref="B44" r:id="rId45" xr:uid="{E3813A00-5089-4ADC-A8AD-7DF950283A69}"/>
-    <hyperlink ref="C44" r:id="rId46" xr:uid="{037508C1-5523-4E03-9BB1-EB42431169EF}"/>
-    <hyperlink ref="B50" r:id="rId47" xr:uid="{1E94E02E-F3FA-42FD-B09F-D2003F57D3EE}"/>
-    <hyperlink ref="B64" r:id="rId48" xr:uid="{113A2106-ED07-4655-83D2-760868B9A82F}"/>
-    <hyperlink ref="B65" r:id="rId49" xr:uid="{8623AAE3-192B-4639-A74C-BC31EC3EE952}"/>
-    <hyperlink ref="B66" r:id="rId50" xr:uid="{60BAC93E-7462-433A-9895-302264B6C4C3}"/>
-    <hyperlink ref="B67" r:id="rId51" xr:uid="{1748F581-E680-462A-A8FA-BCBCB71889ED}"/>
-    <hyperlink ref="B68" r:id="rId52" xr:uid="{83804E67-B658-4213-A304-ECAC7F43F490}"/>
-    <hyperlink ref="B69" r:id="rId53" xr:uid="{2E600CD9-DEF7-4BC6-B1C4-87D4073EC204}"/>
-    <hyperlink ref="C69" r:id="rId54" xr:uid="{3A8D1AAD-BF1C-4FEE-9E57-A94D8C32691C}"/>
-    <hyperlink ref="B71" r:id="rId55" xr:uid="{67CD663A-ECE0-48F6-95CB-00C73D742D97}"/>
-    <hyperlink ref="B73" r:id="rId56" xr:uid="{E6B2DDF1-286F-4063-B307-80FB7A9664EF}"/>
-    <hyperlink ref="C73" r:id="rId57" xr:uid="{273E9363-5934-4916-8E06-FD3D31DD181B}"/>
-    <hyperlink ref="B70" r:id="rId58" xr:uid="{660FE78A-2148-4F6E-9BAB-5B4ACFF7CC83}"/>
-    <hyperlink ref="B74" r:id="rId59" xr:uid="{BBE01F00-C56E-4CD8-BFB7-6ECB37057E76}"/>
-    <hyperlink ref="B75" r:id="rId60" xr:uid="{DC55B3C6-FE91-4912-8E0D-6DDA584CD96C}"/>
-    <hyperlink ref="B76" r:id="rId61" xr:uid="{0C6B48D4-5BE5-4C7A-B0BB-EA2ECD8A9330}"/>
-    <hyperlink ref="E76" r:id="rId62" xr:uid="{FAB1D59C-9BF3-4823-BCC2-2E3EDF93F8BC}"/>
-    <hyperlink ref="C76" r:id="rId63" xr:uid="{858ED727-F566-4E90-B260-66026AB81B6E}"/>
-    <hyperlink ref="B77" r:id="rId64" xr:uid="{5F679A67-2F2F-4766-AC0F-B963229AC357}"/>
-    <hyperlink ref="C77" r:id="rId65" xr:uid="{50696E1F-5E56-42A4-BE48-2878428171FD}"/>
-    <hyperlink ref="B78" r:id="rId66" xr:uid="{B17253E7-748A-41F5-A4F2-730409ACD858}"/>
-    <hyperlink ref="B79" r:id="rId67" xr:uid="{BB42FFF4-8374-419C-959E-345519C499A9}"/>
-    <hyperlink ref="C79" r:id="rId68" xr:uid="{A81F2611-92E7-4CF7-B27A-C01F74B9841D}"/>
-    <hyperlink ref="B81" r:id="rId69" xr:uid="{55F53442-C499-41DC-B574-FA488A5B1B8B}"/>
-    <hyperlink ref="B80" r:id="rId70" display="Given a linked list of 0s, 1s and 2s, sort it" xr:uid="{8AC469F8-0359-49D5-87BB-41AF1EA37CF2}"/>
-    <hyperlink ref="D80" r:id="rId71" xr:uid="{12DF7C50-6EAA-43E4-A7BC-2D6CF66E19B4}"/>
-    <hyperlink ref="B72" r:id="rId72" xr:uid="{E9510C28-4414-4A8E-A43B-99647C81CBF4}"/>
-    <hyperlink ref="C72" r:id="rId73" xr:uid="{C4D1190B-DC4C-45A4-8016-3AFEBE643EB2}"/>
-    <hyperlink ref="B90" r:id="rId74" xr:uid="{E6D574FF-C0FE-4985-9D7A-ECA68A91D9E9}"/>
-    <hyperlink ref="B91" r:id="rId75" xr:uid="{A06B0C67-D6F6-4010-8C1B-4E0134A730D2}"/>
-    <hyperlink ref="D91" r:id="rId76" xr:uid="{448D6CDF-4EE1-4CE4-817B-12BC893564BF}"/>
-    <hyperlink ref="B92" r:id="rId77" xr:uid="{F4F01CC9-414A-4A38-B9A0-1A7558D81850}"/>
-    <hyperlink ref="B82" r:id="rId78" xr:uid="{740EE0B5-B48B-4E3D-A135-E211062B774D}"/>
-    <hyperlink ref="B93" r:id="rId79" xr:uid="{23B08453-E133-4058-96A1-A32A6A9B4CC2}"/>
-    <hyperlink ref="B94" r:id="rId80" xr:uid="{BEA908B3-2B03-4BA8-98A3-899D521A4F89}"/>
-    <hyperlink ref="D94" r:id="rId81" xr:uid="{09DE7B4A-0717-41B4-B0BB-D03A793A1264}"/>
-    <hyperlink ref="C94" r:id="rId82" xr:uid="{D20BFE41-D98B-4003-844E-BE42562F2643}"/>
-    <hyperlink ref="B95" r:id="rId83" display="Get minimum element from stack" xr:uid="{635A5D19-F327-4075-902F-F3EC4B97B0CB}"/>
-    <hyperlink ref="B96" r:id="rId84" xr:uid="{FC1EB299-2C44-443D-BCD1-9A79AC3F936B}"/>
-    <hyperlink ref="C96" r:id="rId85" xr:uid="{B9023DA0-4ED2-4B7D-9B7B-35285FF2D431}"/>
-    <hyperlink ref="B97" r:id="rId86" xr:uid="{F6BE8069-A088-4092-AD06-CF3807CBA978}"/>
-    <hyperlink ref="E97" r:id="rId87" xr:uid="{9D7CC7DF-F681-43BD-925E-2CDAEF224315}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{091BE94C-791D-41DB-B1BB-9C5E042403DB}"/>
-    <hyperlink ref="C98" r:id="rId89" xr:uid="{4FEA6634-D061-454B-BD61-25C4A8512F4F}"/>
-    <hyperlink ref="B108" r:id="rId90" xr:uid="{3BAA84B7-2450-47B8-BC4E-BD9AE380A59E}"/>
-    <hyperlink ref="E108" r:id="rId91" xr:uid="{7B41E4F4-3BE5-493E-B85E-E716C116D2E7}"/>
-    <hyperlink ref="B109" r:id="rId92" xr:uid="{CB2E3D7E-4BD1-4E5D-84D9-3E9B14CFB528}"/>
-    <hyperlink ref="C109" r:id="rId93" xr:uid="{1F88AEFC-810B-4328-86B4-F674FB0599F9}"/>
-    <hyperlink ref="B110" r:id="rId94" xr:uid="{8036B1A3-3AAE-4604-8C9B-67CD5E7004E2}"/>
-    <hyperlink ref="B111" r:id="rId95" xr:uid="{D79C2DBF-0860-40E9-8921-F79FB036046A}"/>
-    <hyperlink ref="C111" r:id="rId96" xr:uid="{B823537C-82CB-4C39-9CC8-37ABECBD96F4}"/>
-    <hyperlink ref="B112" r:id="rId97" xr:uid="{FA1A914B-43A1-4BAC-9731-B8176C0846BD}"/>
-    <hyperlink ref="C112" r:id="rId98" xr:uid="{726952E6-8084-442D-8C7C-261619EC36AC}"/>
-    <hyperlink ref="E112" r:id="rId99" xr:uid="{29BCB642-7D7E-450B-8E08-7B6866F66D81}"/>
-    <hyperlink ref="B113" r:id="rId100" xr:uid="{DC68367B-2BFE-42D6-AB12-EBF109C8CE04}"/>
-    <hyperlink ref="B114" r:id="rId101" xr:uid="{9980061B-D215-40DB-A5EA-1E511F9434DF}"/>
-    <hyperlink ref="B115" r:id="rId102" xr:uid="{7D1BA4F5-1E1A-4D40-AA96-262A0C98EFC9}"/>
-    <hyperlink ref="B116" r:id="rId103" xr:uid="{3320A818-3239-4AB9-A0E2-96454BD1A4DB}"/>
-    <hyperlink ref="B117" r:id="rId104" xr:uid="{9578C73F-CB55-425F-8AEA-97F9D7BB5F35}"/>
-    <hyperlink ref="B125" r:id="rId105" xr:uid="{AF3512F0-CE19-4725-B246-A00164CC87F1}"/>
-    <hyperlink ref="B127" r:id="rId106" xr:uid="{42CD297E-D057-411F-9453-A391F79D1D73}"/>
-    <hyperlink ref="B126" r:id="rId107" xr:uid="{C46C589D-50BF-4EB2-8FF5-58B2AF4FA283}"/>
-    <hyperlink ref="B128" r:id="rId108" xr:uid="{6C586A19-C5EB-4C2F-A5EB-BD34CBF0C62B}"/>
-    <hyperlink ref="B129" r:id="rId109" xr:uid="{4CFAA07D-331B-4436-9A93-C0965137963D}"/>
-    <hyperlink ref="B130" r:id="rId110" xr:uid="{B5D9C32E-5E90-4AAF-8433-CCAFA212E5D4}"/>
-    <hyperlink ref="B131" r:id="rId111" xr:uid="{8CD168F2-69C4-411A-82D0-3E8E127F60F3}"/>
-    <hyperlink ref="B132" r:id="rId112" xr:uid="{C8A6D2DB-D24A-44A1-AE0D-6FAE345A7882}"/>
-    <hyperlink ref="B133" r:id="rId113" xr:uid="{9EE93D8C-7A10-42AD-9289-992B99371BA1}"/>
-    <hyperlink ref="B134" r:id="rId114" xr:uid="{71D27AAE-7247-4628-9116-717DE062AE73}"/>
-    <hyperlink ref="B135" r:id="rId115" xr:uid="{F4590B22-D716-43F0-9782-FDEAB5611C8A}"/>
-    <hyperlink ref="B136" r:id="rId116" xr:uid="{BE2BD6A0-A18B-4BD1-B989-622CFEA8D800}"/>
-    <hyperlink ref="B146" r:id="rId117" xr:uid="{7F63C23B-9886-4F36-89AE-36B1AF9D4F8C}"/>
-    <hyperlink ref="B147" r:id="rId118" xr:uid="{A8A23A8D-250A-4A19-AC18-DE0A7282B3EC}"/>
-    <hyperlink ref="B148" r:id="rId119" xr:uid="{49FB05E5-7161-4D2D-9B00-495020E1842A}"/>
-    <hyperlink ref="B149" r:id="rId120" xr:uid="{A36B8B8A-F2AE-43E4-BB27-BD760F53ABD7}"/>
-    <hyperlink ref="B150" r:id="rId121" xr:uid="{744A8811-6C09-4A1F-98B9-8EFB13B0631B}"/>
-    <hyperlink ref="B151" r:id="rId122" xr:uid="{DB37A3D0-BA8D-43D1-8619-B12AB8808D15}"/>
-    <hyperlink ref="B152" r:id="rId123" xr:uid="{E4A9700C-F603-41C6-9048-358AE5DD3D99}"/>
-    <hyperlink ref="B153" r:id="rId124" xr:uid="{D8E4F3F2-37CD-43AD-9D1E-040319409052}"/>
-    <hyperlink ref="B154" r:id="rId125" xr:uid="{1BAC6D68-2DAD-48A0-B566-8B9B1BF51DB7}"/>
-    <hyperlink ref="B155" r:id="rId126" xr:uid="{F4866B51-A9D2-46BE-89DD-978A4188B778}"/>
-    <hyperlink ref="B156" r:id="rId127" xr:uid="{EAD33848-AB9C-4AB0-9B1F-F898841897C1}"/>
-    <hyperlink ref="B157" r:id="rId128" xr:uid="{F6120299-C5D6-4FE9-9B80-AD7F225B4A38}"/>
-    <hyperlink ref="B158" r:id="rId129" xr:uid="{FBF2B975-E09D-4249-9125-7B6697950C1A}"/>
-    <hyperlink ref="C158" r:id="rId130" xr:uid="{1AF8EC78-E4D9-4CEF-9B26-905AAEEBA6D8}"/>
-    <hyperlink ref="B169" r:id="rId131" xr:uid="{49B07047-5DE9-4D1C-9F6D-65EFB11B7998}"/>
-    <hyperlink ref="C169" r:id="rId132" xr:uid="{81B41162-4E45-4B12-A781-1B9E1FB8B5B0}"/>
-    <hyperlink ref="B170" r:id="rId133" xr:uid="{A2A4AE73-C3B3-402B-8BCF-68258F2DA5B6}"/>
-    <hyperlink ref="C170" r:id="rId134" xr:uid="{3736E474-C7E6-4892-A1D3-BE3153009099}"/>
-    <hyperlink ref="B171" r:id="rId135" xr:uid="{E5076A5B-76F2-4CFC-8036-05036ACF1A14}"/>
-    <hyperlink ref="B172" r:id="rId136" xr:uid="{531D51D2-3A54-4089-9699-B1204FC74879}"/>
-    <hyperlink ref="B173" r:id="rId137" xr:uid="{B41692F5-8C65-45E6-9921-8935307B2E50}"/>
-    <hyperlink ref="B175" r:id="rId138" xr:uid="{FD70716D-9E61-4019-9AD1-130F47FE0AF9}"/>
-    <hyperlink ref="B177" r:id="rId139" xr:uid="{74C713AB-3837-4F51-92E8-79552769A90C}"/>
-    <hyperlink ref="B179" r:id="rId140" xr:uid="{7D442F52-3E41-4913-8E63-9B5C739FC2FE}"/>
-    <hyperlink ref="B178" r:id="rId141" xr:uid="{EB8B64BA-9268-4676-B0E9-0FB612643B2D}"/>
-    <hyperlink ref="B182" r:id="rId142" xr:uid="{167A3D58-3048-478E-B7C4-E6985AE3F9BF}"/>
-    <hyperlink ref="B181" r:id="rId143" xr:uid="{C891AA98-CBB5-454A-928E-F6B928AC1142}"/>
-    <hyperlink ref="B183" r:id="rId144" xr:uid="{1513048B-3E25-4AD9-85CE-8882C782FEF9}"/>
-    <hyperlink ref="B174" r:id="rId145" xr:uid="{4FC5ED8F-8C54-4FFA-8A92-A444EA6BA270}"/>
-    <hyperlink ref="B189" r:id="rId146" xr:uid="{B76FB82F-5790-4161-BB48-421E0EFFE707}"/>
-    <hyperlink ref="B54" r:id="rId147" xr:uid="{2218D9B5-922F-4E08-B0BB-76A9FE817124}"/>
-    <hyperlink ref="C54" r:id="rId148" xr:uid="{30A6A7D1-9B65-4F5D-8804-35D7DCE48277}"/>
-    <hyperlink ref="B55" r:id="rId149" xr:uid="{43EDA416-C963-4406-9E46-EB41D3D73008}"/>
-    <hyperlink ref="C55" r:id="rId150" xr:uid="{D6A4AF6A-8642-49B2-9B30-1354DA06591B}"/>
-    <hyperlink ref="B56" r:id="rId151" xr:uid="{5AD2FA6F-928B-4F8D-A9BF-CF01423085AD}"/>
-    <hyperlink ref="C56" r:id="rId152" xr:uid="{6DE5D4BA-802B-4A61-8E2D-B2EB7C6AD8B0}"/>
-    <hyperlink ref="C129" r:id="rId153" xr:uid="{8FFD5303-3F50-4588-834F-9F72B33516AA}"/>
-    <hyperlink ref="E129" r:id="rId154" xr:uid="{6B40107E-EEA8-493D-8BD5-8A633F99BBDC}"/>
-    <hyperlink ref="C127" r:id="rId155" xr:uid="{14E076B0-549B-42A6-ACDE-B89ADE48FD7A}"/>
-    <hyperlink ref="B200" r:id="rId156" xr:uid="{9A22EF7A-5EFB-44C5-9B1E-BE1E9BD31987}"/>
-    <hyperlink ref="B199" r:id="rId157" xr:uid="{3EAFD38A-E97C-4EB2-BDD2-44EB6537390D}"/>
-    <hyperlink ref="B201" r:id="rId158" xr:uid="{F0BE2E36-7437-4447-92C9-EFFC682A7918}"/>
-    <hyperlink ref="C201" r:id="rId159" xr:uid="{7AA4F6C6-A4BE-4977-8BF8-E2B81802C013}"/>
-    <hyperlink ref="B206" r:id="rId160" xr:uid="{2BD55ED9-B13D-4384-B00E-075F0C2303BF}"/>
-    <hyperlink ref="C206" r:id="rId161" xr:uid="{D2570028-5CD9-4620-AD76-6D8E4227DC8B}"/>
-    <hyperlink ref="C202" r:id="rId162" xr:uid="{B0E8157B-FE65-4CEB-8553-3B6D75A67069}"/>
-    <hyperlink ref="B202" r:id="rId163" xr:uid="{C96AAE46-FFD7-44EA-8ACB-8D669B17D109}"/>
-    <hyperlink ref="B203" r:id="rId164" xr:uid="{EDD1FD27-EB8A-4924-ACED-BA1E84383A54}"/>
+    <hyperlink ref="B41" r:id="rId33" xr:uid="{8E207AE5-9EAD-432D-8B4A-C9EF568F61D1}"/>
+    <hyperlink ref="B42" r:id="rId34" xr:uid="{161B4C7B-3BB6-4265-8B90-2BC40A735319}"/>
+    <hyperlink ref="B43" r:id="rId35" xr:uid="{238E0413-3A3E-47AE-9921-4B52C3B61472}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{CF172B52-4773-4EAE-B54E-3E04FE30DAD6}"/>
+    <hyperlink ref="B45" r:id="rId37" xr:uid="{16645B45-59EB-4634-8DEA-08703BAAB54A}"/>
+    <hyperlink ref="B47" r:id="rId38" xr:uid="{CA63F458-AB31-4852-B8E8-539B5177BF60}"/>
+    <hyperlink ref="B48" r:id="rId39" xr:uid="{71625C48-5AD8-44E7-A01C-AD244BBED96E}"/>
+    <hyperlink ref="B50" r:id="rId40" xr:uid="{5B8AEE57-E1B8-423B-B6E2-24958986284B}"/>
+    <hyperlink ref="B49" r:id="rId41" xr:uid="{BF2D2EE9-5A08-4A80-866B-C18068D64C7A}"/>
+    <hyperlink ref="C49" r:id="rId42" xr:uid="{B4C3A567-11E1-4327-8CCD-49EA6A8E19D5}"/>
+    <hyperlink ref="B51" r:id="rId43" xr:uid="{9BA45C0E-8027-4E24-9D02-AD7623EB37B8}"/>
+    <hyperlink ref="B53" r:id="rId44" xr:uid="{AAB5C309-3325-4C00-B2FC-9BB537891C98}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{E3813A00-5089-4ADC-A8AD-7DF950283A69}"/>
+    <hyperlink ref="C46" r:id="rId46" xr:uid="{037508C1-5523-4E03-9BB1-EB42431169EF}"/>
+    <hyperlink ref="B52" r:id="rId47" xr:uid="{1E94E02E-F3FA-42FD-B09F-D2003F57D3EE}"/>
+    <hyperlink ref="B66" r:id="rId48" xr:uid="{113A2106-ED07-4655-83D2-760868B9A82F}"/>
+    <hyperlink ref="B67" r:id="rId49" xr:uid="{8623AAE3-192B-4639-A74C-BC31EC3EE952}"/>
+    <hyperlink ref="B68" r:id="rId50" xr:uid="{60BAC93E-7462-433A-9895-302264B6C4C3}"/>
+    <hyperlink ref="B69" r:id="rId51" xr:uid="{1748F581-E680-462A-A8FA-BCBCB71889ED}"/>
+    <hyperlink ref="B70" r:id="rId52" xr:uid="{83804E67-B658-4213-A304-ECAC7F43F490}"/>
+    <hyperlink ref="B71" r:id="rId53" xr:uid="{2E600CD9-DEF7-4BC6-B1C4-87D4073EC204}"/>
+    <hyperlink ref="C71" r:id="rId54" xr:uid="{3A8D1AAD-BF1C-4FEE-9E57-A94D8C32691C}"/>
+    <hyperlink ref="B73" r:id="rId55" xr:uid="{67CD663A-ECE0-48F6-95CB-00C73D742D97}"/>
+    <hyperlink ref="B75" r:id="rId56" xr:uid="{E6B2DDF1-286F-4063-B307-80FB7A9664EF}"/>
+    <hyperlink ref="C75" r:id="rId57" xr:uid="{273E9363-5934-4916-8E06-FD3D31DD181B}"/>
+    <hyperlink ref="B72" r:id="rId58" xr:uid="{660FE78A-2148-4F6E-9BAB-5B4ACFF7CC83}"/>
+    <hyperlink ref="B76" r:id="rId59" xr:uid="{BBE01F00-C56E-4CD8-BFB7-6ECB37057E76}"/>
+    <hyperlink ref="B77" r:id="rId60" xr:uid="{DC55B3C6-FE91-4912-8E0D-6DDA584CD96C}"/>
+    <hyperlink ref="B78" r:id="rId61" xr:uid="{0C6B48D4-5BE5-4C7A-B0BB-EA2ECD8A9330}"/>
+    <hyperlink ref="E78" r:id="rId62" xr:uid="{FAB1D59C-9BF3-4823-BCC2-2E3EDF93F8BC}"/>
+    <hyperlink ref="C78" r:id="rId63" xr:uid="{858ED727-F566-4E90-B260-66026AB81B6E}"/>
+    <hyperlink ref="B79" r:id="rId64" xr:uid="{5F679A67-2F2F-4766-AC0F-B963229AC357}"/>
+    <hyperlink ref="C79" r:id="rId65" xr:uid="{50696E1F-5E56-42A4-BE48-2878428171FD}"/>
+    <hyperlink ref="B80" r:id="rId66" xr:uid="{B17253E7-748A-41F5-A4F2-730409ACD858}"/>
+    <hyperlink ref="B81" r:id="rId67" xr:uid="{BB42FFF4-8374-419C-959E-345519C499A9}"/>
+    <hyperlink ref="C81" r:id="rId68" xr:uid="{A81F2611-92E7-4CF7-B27A-C01F74B9841D}"/>
+    <hyperlink ref="B83" r:id="rId69" xr:uid="{55F53442-C499-41DC-B574-FA488A5B1B8B}"/>
+    <hyperlink ref="B82" r:id="rId70" display="Given a linked list of 0s, 1s and 2s, sort it" xr:uid="{8AC469F8-0359-49D5-87BB-41AF1EA37CF2}"/>
+    <hyperlink ref="D82" r:id="rId71" xr:uid="{12DF7C50-6EAA-43E4-A7BC-2D6CF66E19B4}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{E9510C28-4414-4A8E-A43B-99647C81CBF4}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{C4D1190B-DC4C-45A4-8016-3AFEBE643EB2}"/>
+    <hyperlink ref="B92" r:id="rId74" xr:uid="{E6D574FF-C0FE-4985-9D7A-ECA68A91D9E9}"/>
+    <hyperlink ref="B93" r:id="rId75" xr:uid="{A06B0C67-D6F6-4010-8C1B-4E0134A730D2}"/>
+    <hyperlink ref="D93" r:id="rId76" xr:uid="{448D6CDF-4EE1-4CE4-817B-12BC893564BF}"/>
+    <hyperlink ref="B94" r:id="rId77" xr:uid="{F4F01CC9-414A-4A38-B9A0-1A7558D81850}"/>
+    <hyperlink ref="B84" r:id="rId78" xr:uid="{740EE0B5-B48B-4E3D-A135-E211062B774D}"/>
+    <hyperlink ref="B95" r:id="rId79" xr:uid="{23B08453-E133-4058-96A1-A32A6A9B4CC2}"/>
+    <hyperlink ref="B96" r:id="rId80" xr:uid="{BEA908B3-2B03-4BA8-98A3-899D521A4F89}"/>
+    <hyperlink ref="D96" r:id="rId81" xr:uid="{09DE7B4A-0717-41B4-B0BB-D03A793A1264}"/>
+    <hyperlink ref="C96" r:id="rId82" xr:uid="{D20BFE41-D98B-4003-844E-BE42562F2643}"/>
+    <hyperlink ref="B97" r:id="rId83" display="Get minimum element from stack" xr:uid="{635A5D19-F327-4075-902F-F3EC4B97B0CB}"/>
+    <hyperlink ref="B98" r:id="rId84" xr:uid="{FC1EB299-2C44-443D-BCD1-9A79AC3F936B}"/>
+    <hyperlink ref="C98" r:id="rId85" xr:uid="{B9023DA0-4ED2-4B7D-9B7B-35285FF2D431}"/>
+    <hyperlink ref="B99" r:id="rId86" xr:uid="{F6BE8069-A088-4092-AD06-CF3807CBA978}"/>
+    <hyperlink ref="E99" r:id="rId87" xr:uid="{9D7CC7DF-F681-43BD-925E-2CDAEF224315}"/>
+    <hyperlink ref="B100" r:id="rId88" xr:uid="{091BE94C-791D-41DB-B1BB-9C5E042403DB}"/>
+    <hyperlink ref="C100" r:id="rId89" xr:uid="{4FEA6634-D061-454B-BD61-25C4A8512F4F}"/>
+    <hyperlink ref="B110" r:id="rId90" xr:uid="{3BAA84B7-2450-47B8-BC4E-BD9AE380A59E}"/>
+    <hyperlink ref="E110" r:id="rId91" xr:uid="{7B41E4F4-3BE5-493E-B85E-E716C116D2E7}"/>
+    <hyperlink ref="B111" r:id="rId92" xr:uid="{CB2E3D7E-4BD1-4E5D-84D9-3E9B14CFB528}"/>
+    <hyperlink ref="C111" r:id="rId93" xr:uid="{1F88AEFC-810B-4328-86B4-F674FB0599F9}"/>
+    <hyperlink ref="B112" r:id="rId94" xr:uid="{8036B1A3-3AAE-4604-8C9B-67CD5E7004E2}"/>
+    <hyperlink ref="B113" r:id="rId95" xr:uid="{D79C2DBF-0860-40E9-8921-F79FB036046A}"/>
+    <hyperlink ref="C113" r:id="rId96" xr:uid="{B823537C-82CB-4C39-9CC8-37ABECBD96F4}"/>
+    <hyperlink ref="B114" r:id="rId97" xr:uid="{FA1A914B-43A1-4BAC-9731-B8176C0846BD}"/>
+    <hyperlink ref="C114" r:id="rId98" xr:uid="{726952E6-8084-442D-8C7C-261619EC36AC}"/>
+    <hyperlink ref="E114" r:id="rId99" xr:uid="{29BCB642-7D7E-450B-8E08-7B6866F66D81}"/>
+    <hyperlink ref="B115" r:id="rId100" xr:uid="{DC68367B-2BFE-42D6-AB12-EBF109C8CE04}"/>
+    <hyperlink ref="B116" r:id="rId101" xr:uid="{9980061B-D215-40DB-A5EA-1E511F9434DF}"/>
+    <hyperlink ref="B117" r:id="rId102" xr:uid="{7D1BA4F5-1E1A-4D40-AA96-262A0C98EFC9}"/>
+    <hyperlink ref="B118" r:id="rId103" xr:uid="{3320A818-3239-4AB9-A0E2-96454BD1A4DB}"/>
+    <hyperlink ref="B119" r:id="rId104" xr:uid="{9578C73F-CB55-425F-8AEA-97F9D7BB5F35}"/>
+    <hyperlink ref="B129" r:id="rId105" xr:uid="{AF3512F0-CE19-4725-B246-A00164CC87F1}"/>
+    <hyperlink ref="B131" r:id="rId106" xr:uid="{42CD297E-D057-411F-9453-A391F79D1D73}"/>
+    <hyperlink ref="B130" r:id="rId107" xr:uid="{C46C589D-50BF-4EB2-8FF5-58B2AF4FA283}"/>
+    <hyperlink ref="B132" r:id="rId108" xr:uid="{6C586A19-C5EB-4C2F-A5EB-BD34CBF0C62B}"/>
+    <hyperlink ref="B133" r:id="rId109" xr:uid="{4CFAA07D-331B-4436-9A93-C0965137963D}"/>
+    <hyperlink ref="B134" r:id="rId110" xr:uid="{B5D9C32E-5E90-4AAF-8433-CCAFA212E5D4}"/>
+    <hyperlink ref="B135" r:id="rId111" xr:uid="{8CD168F2-69C4-411A-82D0-3E8E127F60F3}"/>
+    <hyperlink ref="B136" r:id="rId112" xr:uid="{C8A6D2DB-D24A-44A1-AE0D-6FAE345A7882}"/>
+    <hyperlink ref="B137" r:id="rId113" xr:uid="{9EE93D8C-7A10-42AD-9289-992B99371BA1}"/>
+    <hyperlink ref="B138" r:id="rId114" xr:uid="{71D27AAE-7247-4628-9116-717DE062AE73}"/>
+    <hyperlink ref="B139" r:id="rId115" xr:uid="{F4590B22-D716-43F0-9782-FDEAB5611C8A}"/>
+    <hyperlink ref="B140" r:id="rId116" xr:uid="{BE2BD6A0-A18B-4BD1-B989-622CFEA8D800}"/>
+    <hyperlink ref="B150" r:id="rId117" xr:uid="{7F63C23B-9886-4F36-89AE-36B1AF9D4F8C}"/>
+    <hyperlink ref="B151" r:id="rId118" xr:uid="{A8A23A8D-250A-4A19-AC18-DE0A7282B3EC}"/>
+    <hyperlink ref="B152" r:id="rId119" xr:uid="{49FB05E5-7161-4D2D-9B00-495020E1842A}"/>
+    <hyperlink ref="B153" r:id="rId120" xr:uid="{A36B8B8A-F2AE-43E4-BB27-BD760F53ABD7}"/>
+    <hyperlink ref="B154" r:id="rId121" xr:uid="{744A8811-6C09-4A1F-98B9-8EFB13B0631B}"/>
+    <hyperlink ref="B155" r:id="rId122" xr:uid="{DB37A3D0-BA8D-43D1-8619-B12AB8808D15}"/>
+    <hyperlink ref="B156" r:id="rId123" xr:uid="{E4A9700C-F603-41C6-9048-358AE5DD3D99}"/>
+    <hyperlink ref="B157" r:id="rId124" xr:uid="{D8E4F3F2-37CD-43AD-9D1E-040319409052}"/>
+    <hyperlink ref="B158" r:id="rId125" xr:uid="{1BAC6D68-2DAD-48A0-B566-8B9B1BF51DB7}"/>
+    <hyperlink ref="B159" r:id="rId126" xr:uid="{F4866B51-A9D2-46BE-89DD-978A4188B778}"/>
+    <hyperlink ref="B160" r:id="rId127" xr:uid="{EAD33848-AB9C-4AB0-9B1F-F898841897C1}"/>
+    <hyperlink ref="B161" r:id="rId128" xr:uid="{F6120299-C5D6-4FE9-9B80-AD7F225B4A38}"/>
+    <hyperlink ref="B162" r:id="rId129" xr:uid="{FBF2B975-E09D-4249-9125-7B6697950C1A}"/>
+    <hyperlink ref="C162" r:id="rId130" xr:uid="{1AF8EC78-E4D9-4CEF-9B26-905AAEEBA6D8}"/>
+    <hyperlink ref="B173" r:id="rId131" xr:uid="{49B07047-5DE9-4D1C-9F6D-65EFB11B7998}"/>
+    <hyperlink ref="C173" r:id="rId132" xr:uid="{81B41162-4E45-4B12-A781-1B9E1FB8B5B0}"/>
+    <hyperlink ref="B174" r:id="rId133" xr:uid="{A2A4AE73-C3B3-402B-8BCF-68258F2DA5B6}"/>
+    <hyperlink ref="C174" r:id="rId134" xr:uid="{3736E474-C7E6-4892-A1D3-BE3153009099}"/>
+    <hyperlink ref="B175" r:id="rId135" xr:uid="{E5076A5B-76F2-4CFC-8036-05036ACF1A14}"/>
+    <hyperlink ref="B176" r:id="rId136" xr:uid="{531D51D2-3A54-4089-9699-B1204FC74879}"/>
+    <hyperlink ref="B177" r:id="rId137" xr:uid="{B41692F5-8C65-45E6-9921-8935307B2E50}"/>
+    <hyperlink ref="B179" r:id="rId138" xr:uid="{FD70716D-9E61-4019-9AD1-130F47FE0AF9}"/>
+    <hyperlink ref="B181" r:id="rId139" xr:uid="{74C713AB-3837-4F51-92E8-79552769A90C}"/>
+    <hyperlink ref="B183" r:id="rId140" xr:uid="{7D442F52-3E41-4913-8E63-9B5C739FC2FE}"/>
+    <hyperlink ref="B182" r:id="rId141" xr:uid="{EB8B64BA-9268-4676-B0E9-0FB612643B2D}"/>
+    <hyperlink ref="B186" r:id="rId142" xr:uid="{167A3D58-3048-478E-B7C4-E6985AE3F9BF}"/>
+    <hyperlink ref="B185" r:id="rId143" xr:uid="{C891AA98-CBB5-454A-928E-F6B928AC1142}"/>
+    <hyperlink ref="B187" r:id="rId144" xr:uid="{1513048B-3E25-4AD9-85CE-8882C782FEF9}"/>
+    <hyperlink ref="B178" r:id="rId145" xr:uid="{4FC5ED8F-8C54-4FFA-8A92-A444EA6BA270}"/>
+    <hyperlink ref="B193" r:id="rId146" xr:uid="{B76FB82F-5790-4161-BB48-421E0EFFE707}"/>
+    <hyperlink ref="B56" r:id="rId147" xr:uid="{2218D9B5-922F-4E08-B0BB-76A9FE817124}"/>
+    <hyperlink ref="C56" r:id="rId148" xr:uid="{30A6A7D1-9B65-4F5D-8804-35D7DCE48277}"/>
+    <hyperlink ref="B57" r:id="rId149" xr:uid="{43EDA416-C963-4406-9E46-EB41D3D73008}"/>
+    <hyperlink ref="C57" r:id="rId150" xr:uid="{D6A4AF6A-8642-49B2-9B30-1354DA06591B}"/>
+    <hyperlink ref="B58" r:id="rId151" xr:uid="{5AD2FA6F-928B-4F8D-A9BF-CF01423085AD}"/>
+    <hyperlink ref="C58" r:id="rId152" xr:uid="{6DE5D4BA-802B-4A61-8E2D-B2EB7C6AD8B0}"/>
+    <hyperlink ref="C133" r:id="rId153" xr:uid="{8FFD5303-3F50-4588-834F-9F72B33516AA}"/>
+    <hyperlink ref="E133" r:id="rId154" xr:uid="{6B40107E-EEA8-493D-8BD5-8A633F99BBDC}"/>
+    <hyperlink ref="C131" r:id="rId155" xr:uid="{14E076B0-549B-42A6-ACDE-B89ADE48FD7A}"/>
+    <hyperlink ref="B204" r:id="rId156" xr:uid="{9A22EF7A-5EFB-44C5-9B1E-BE1E9BD31987}"/>
+    <hyperlink ref="B203" r:id="rId157" xr:uid="{3EAFD38A-E97C-4EB2-BDD2-44EB6537390D}"/>
+    <hyperlink ref="B205" r:id="rId158" xr:uid="{F0BE2E36-7437-4447-92C9-EFFC682A7918}"/>
+    <hyperlink ref="C205" r:id="rId159" xr:uid="{7AA4F6C6-A4BE-4977-8BF8-E2B81802C013}"/>
+    <hyperlink ref="B210" r:id="rId160" xr:uid="{2BD55ED9-B13D-4384-B00E-075F0C2303BF}"/>
+    <hyperlink ref="C210" r:id="rId161" xr:uid="{D2570028-5CD9-4620-AD76-6D8E4227DC8B}"/>
+    <hyperlink ref="C206" r:id="rId162" xr:uid="{B0E8157B-FE65-4CEB-8553-3B6D75A67069}"/>
+    <hyperlink ref="B206" r:id="rId163" xr:uid="{C96AAE46-FFD7-44EA-8ACB-8D669B17D109}"/>
+    <hyperlink ref="B207" r:id="rId164" xr:uid="{EDD1FD27-EB8A-4924-ACED-BA1E84383A54}"/>
+    <hyperlink ref="B221" r:id="rId165" xr:uid="{1D39D8B7-C70F-4B52-BF6A-3375F5104518}"/>
+    <hyperlink ref="B222" r:id="rId166" xr:uid="{A61656BD-4D1A-457D-B7C5-1A79CCCC8DB9}"/>
+    <hyperlink ref="C222" r:id="rId167" xr:uid="{6CC3A7FD-60BE-4D06-B3BC-96991A1B8C1B}"/>
+    <hyperlink ref="B120" r:id="rId168" xr:uid="{B3B69F94-5A21-45B9-8D36-C59798CE24C6}"/>
+    <hyperlink ref="B121" r:id="rId169" xr:uid="{837312EC-9DF0-4E41-AFA9-E8B625F03BA7}"/>
+    <hyperlink ref="C121" r:id="rId170" xr:uid="{186259AE-D4CF-40E7-B9FF-970303396704}"/>
+    <hyperlink ref="B235" r:id="rId171" xr:uid="{CD64629B-C446-40F5-9138-FCC168D99505}"/>
+    <hyperlink ref="C235" r:id="rId172" xr:uid="{E7BAA72F-F47C-4D56-83A3-D814B3CFDB68}"/>
+    <hyperlink ref="B249" r:id="rId173" display="Sort an array according to the other" xr:uid="{93B6DA61-F721-4C6D-887D-1B9BE755B1A4}"/>
+    <hyperlink ref="B250" r:id="rId174" xr:uid="{D5CC8AFF-7E3D-434A-9BA9-474F2EC51114}"/>
+    <hyperlink ref="B252" r:id="rId175" xr:uid="{1007EA07-16CC-4A6F-BA04-676875825E79}"/>
+    <hyperlink ref="B251" r:id="rId176" xr:uid="{35DAFC4F-B8C3-4E02-B7F2-358B49D6C595}"/>
+    <hyperlink ref="B253" r:id="rId177" xr:uid="{44034C93-2EC4-4A70-AB40-DCA0627E5AA4}"/>
+    <hyperlink ref="C253" r:id="rId178" xr:uid="{1F818A17-9001-46E2-89F9-9F058EB77CCA}"/>
+    <hyperlink ref="B254" r:id="rId179" xr:uid="{44237A12-1A6F-4ACF-80EB-C23D081AAABA}"/>
+    <hyperlink ref="C254" r:id="rId180" xr:uid="{746E6F34-0305-44CE-926D-38DD5BF48EEE}"/>
+    <hyperlink ref="B255" r:id="rId181" xr:uid="{BE5D4FF6-BFB5-41C1-959F-80A0AB4D5734}"/>
+    <hyperlink ref="B256" r:id="rId182" xr:uid="{79589F99-20F3-4E87-A576-79EB1654FD46}"/>
+    <hyperlink ref="B257" r:id="rId183" xr:uid="{6C3AF1C2-2B31-4898-90C6-717AB4D2B168}"/>
+    <hyperlink ref="B236" r:id="rId184" xr:uid="{C8AABAA5-56A0-4FEC-85E5-2F10458D70D3}"/>
+    <hyperlink ref="B237" r:id="rId185" xr:uid="{AADBC589-22C2-42D1-8841-E480C7159427}"/>
+    <hyperlink ref="B238" r:id="rId186" xr:uid="{8C59D980-29D5-4784-A12A-5C8478A2C6C1}"/>
+    <hyperlink ref="D239" r:id="rId187" xr:uid="{576B5530-2A46-4431-A907-16B10816FD36}"/>
+    <hyperlink ref="B239" r:id="rId188" xr:uid="{C32DF61B-89EF-4D79-BCF1-A5025C44812C}"/>
+    <hyperlink ref="C239" r:id="rId189" xr:uid="{B652A969-BC66-436E-A408-6EA283AD50D3}"/>
+    <hyperlink ref="B240" r:id="rId190" xr:uid="{06FA2ECF-5E78-4331-B38A-65646C89AC8C}"/>
+    <hyperlink ref="C240" r:id="rId191" xr:uid="{1035EC43-40A9-4703-BB24-5D1E0614C7E9}"/>
+    <hyperlink ref="B223" r:id="rId192" xr:uid="{A50B8CDB-940F-4946-AE91-DB4A598DC2B0}"/>
+    <hyperlink ref="B224" r:id="rId193" xr:uid="{84D4339C-A341-410F-AEBE-E7DD53F56BCF}"/>
+    <hyperlink ref="C224" r:id="rId194" xr:uid="{76D83E48-9E93-4F42-A5AE-794DB397414F}"/>
+    <hyperlink ref="B225" r:id="rId195" xr:uid="{3810BCAF-9E86-41E3-A6D9-D992654E3D7D}"/>
+    <hyperlink ref="B226" r:id="rId196" xr:uid="{59132637-3F77-469F-9C15-8B56B04CE9C4}"/>
+    <hyperlink ref="B227" r:id="rId197" xr:uid="{EFC78011-3104-482B-AEFA-D1C5C6A3C1E3}"/>
+    <hyperlink ref="C227" r:id="rId198" xr:uid="{A0C6DE28-51A3-4F30-80D9-AB4D74708348}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{FD9DD59B-CD7A-4BB8-A6B1-6D2F64E92DCC}"/>
+    <hyperlink ref="B260" r:id="rId200" xr:uid="{79B16304-FFA6-4679-92ED-A9A9682832B3}"/>
+    <hyperlink ref="B259" r:id="rId201" xr:uid="{BD37778D-C9C4-42F1-A0C3-4BC98774ED28}"/>
+    <hyperlink ref="B258" r:id="rId202" xr:uid="{81FFD929-00BC-4571-B5FB-05B2E620152E}"/>
+    <hyperlink ref="B261" r:id="rId203" xr:uid="{76FB056F-6401-40DD-B885-EFDD3920AB9B}"/>
+    <hyperlink ref="B282" r:id="rId204" xr:uid="{D53336C5-758E-42DC-81DB-3566A3E2CA7A}"/>
+    <hyperlink ref="B33" r:id="rId205" xr:uid="{049965E5-741D-4BFE-8355-CD7C4F99D7CD}"/>
+    <hyperlink ref="B59" r:id="rId206" xr:uid="{BD32E30B-AAD9-49A2-B075-5439BD4AF46F}"/>
+    <hyperlink ref="B283" r:id="rId207" xr:uid="{7DE6F23E-859F-47FA-8E8C-17ADEBFA4B4A}"/>
+    <hyperlink ref="C283" r:id="rId208" xr:uid="{58A2A2CF-AEB2-4FFA-8D7F-116B0E3CD589}"/>
+    <hyperlink ref="B284" r:id="rId209" xr:uid="{0A1E2C7E-1755-4BC8-9191-1531FB93D505}"/>
+    <hyperlink ref="B285" r:id="rId210" xr:uid="{C688BC09-7BE8-4FFE-966F-FAAB54709C44}"/>
+    <hyperlink ref="B286" r:id="rId211" xr:uid="{ACF2C03E-FDEB-463F-A9E2-89FD82EAF308}"/>
+    <hyperlink ref="B287" r:id="rId212" xr:uid="{8E08109F-2D9A-4E9B-8FA9-81B9CE4E954E}"/>
+    <hyperlink ref="B288" r:id="rId213" xr:uid="{ABBCE3CD-F790-4C03-87C6-49D1A9C112C5}"/>
+    <hyperlink ref="B289" r:id="rId214" xr:uid="{BE304FAF-1985-4E32-B32B-88D2FF1C2530}"/>
+    <hyperlink ref="B290" r:id="rId215" xr:uid="{C0E8B3E4-D7F8-4246-A1FA-F80A4305BD4E}"/>
+    <hyperlink ref="B291" r:id="rId216" xr:uid="{34D604F8-DB35-4984-BCF5-03387D31B6BA}"/>
+    <hyperlink ref="C291" r:id="rId217" xr:uid="{1614E4CB-3A99-447E-AABD-3E3146BCED1D}"/>
+    <hyperlink ref="B292" r:id="rId218" xr:uid="{317DAA92-A014-4224-B30C-4C8A9DA76E6F}"/>
+    <hyperlink ref="B293" r:id="rId219" xr:uid="{22597315-D521-4F40-B594-8A8CBD0C626C}"/>
+    <hyperlink ref="B294" r:id="rId220" xr:uid="{4E1E42C8-B0D5-4871-9AF5-2A8FBA656E7C}"/>
+    <hyperlink ref="B299" r:id="rId221" xr:uid="{C7B5C625-B7F1-48BE-8C6E-365087605B08}"/>
+    <hyperlink ref="B300" r:id="rId222" xr:uid="{471B1976-F9D4-4696-A466-F79766944334}"/>
+    <hyperlink ref="B302" r:id="rId223" xr:uid="{A38B7A11-2D5D-4115-A31B-9D1B1E0A3E22}"/>
+    <hyperlink ref="B295" r:id="rId224" xr:uid="{B652C9EE-1CB9-4C50-82D0-29F506C50A17}"/>
+    <hyperlink ref="C295" r:id="rId225" xr:uid="{77369110-1FF9-4634-8804-DBC680CBEBAE}"/>
+    <hyperlink ref="B296" r:id="rId226" xr:uid="{FF1E9022-5A7B-49C0-AB55-8CD85B3B8BD4}"/>
+    <hyperlink ref="B297" r:id="rId227" xr:uid="{CA4D3019-12C7-4ABF-9BF4-7FE8287FD371}"/>
+    <hyperlink ref="B298" r:id="rId228" xr:uid="{CDC16012-11E8-4C42-B186-FE8D79DABA5C}"/>
+    <hyperlink ref="B301" r:id="rId229" xr:uid="{D8930FFF-91BA-4307-BC95-C0352E631049}"/>
+    <hyperlink ref="C301" r:id="rId230" xr:uid="{FFCFA00A-42E1-4FBD-922E-C9B2BA554BD9}"/>
+    <hyperlink ref="B315" r:id="rId231" xr:uid="{750FAE7B-2752-4980-A6EC-3E36198691DC}"/>
+    <hyperlink ref="B316" r:id="rId232" xr:uid="{3B3E8496-CD78-4967-BED7-1D60DC8488D1}"/>
+    <hyperlink ref="B317" r:id="rId233" xr:uid="{CE439778-7AF9-4EAA-B939-BBF40C90A1F9}"/>
+    <hyperlink ref="B318" r:id="rId234" xr:uid="{E8896EE0-EF85-468E-B4D6-B01591BA77E6}"/>
+    <hyperlink ref="B319" r:id="rId235" xr:uid="{65D028E0-1AF6-4FEC-9B4B-A5184CBD0FA5}"/>
+    <hyperlink ref="B320" r:id="rId236" xr:uid="{9D7B9765-E3AF-43D5-BAE7-3824A0BB5D1B}"/>
+    <hyperlink ref="B321" r:id="rId237" xr:uid="{52D6F0EA-55E8-40F3-90F0-49C30F5ECB24}"/>
+    <hyperlink ref="C321" r:id="rId238" xr:uid="{10C80E7C-9C50-452B-B203-60724D1B94D8}"/>
+    <hyperlink ref="B322" r:id="rId239" xr:uid="{F480F25F-29AC-405A-AB84-44ADCEE73D2D}"/>
+    <hyperlink ref="B325" r:id="rId240" xr:uid="{1E52BBFD-83F9-4755-9554-703DAD347D88}"/>
+    <hyperlink ref="B324" r:id="rId241" xr:uid="{AC0BF65A-EEAB-46BA-9D53-AD7D5F491B04}"/>
+    <hyperlink ref="B323" r:id="rId242" xr:uid="{99B9A0CA-8B75-45B8-9F9B-FE5C34DF00D8}"/>
+    <hyperlink ref="B326" r:id="rId243" xr:uid="{808145C0-9120-4AFA-87C9-62D9457836E3}"/>
+    <hyperlink ref="B34" r:id="rId244" xr:uid="{5F4FCD40-F87C-4067-8148-A2FC9E6DD2E7}"/>
+    <hyperlink ref="B337" r:id="rId245" xr:uid="{3E85DF42-1358-40FC-B269-B1D009CD0681}"/>
+    <hyperlink ref="B338" r:id="rId246" xr:uid="{5DF89D22-C0CF-446A-9948-6286397EA607}"/>
+    <hyperlink ref="B339" r:id="rId247" xr:uid="{6A3ACD92-0C43-49FA-9285-5EDC1D426242}"/>
+    <hyperlink ref="C339" r:id="rId248" display="video" xr:uid="{1E804421-E481-4D47-8DDE-2058B716DE39}"/>
+    <hyperlink ref="D339" r:id="rId249" xr:uid="{91ECAF99-A669-40EE-A51D-9D0692A4C0DE}"/>
+    <hyperlink ref="B340" r:id="rId250" xr:uid="{BD6BE7C2-6ACC-45DB-9E5E-D04218AB44A2}"/>
+    <hyperlink ref="C340" r:id="rId251" xr:uid="{40067FC2-055D-438E-954C-56057CF0FD94}"/>
+    <hyperlink ref="B341" r:id="rId252" xr:uid="{0A5F912A-1B0A-46C0-844A-CF7042808CCF}"/>
+    <hyperlink ref="C341" r:id="rId253" xr:uid="{96D4FA56-C12C-4FDC-8B42-A2DDCBE698B1}"/>
+    <hyperlink ref="D341" r:id="rId254" xr:uid="{81AA8AA5-FE88-49EA-930F-7EB4DADB7FC3}"/>
+    <hyperlink ref="D340" r:id="rId255" xr:uid="{1004F689-AE2D-441D-809A-8E4F12093EE2}"/>
+    <hyperlink ref="B352" r:id="rId256" xr:uid="{DF19C7FF-EB3A-429A-92C0-5AC0C92BD67E}"/>
+    <hyperlink ref="B342" r:id="rId257" xr:uid="{9097A18F-9656-4A20-808A-6BD20125B0F3}"/>
+    <hyperlink ref="C342" r:id="rId258" xr:uid="{7F72B510-8239-4E6F-8E15-7109B08F9887}"/>
+    <hyperlink ref="B343" r:id="rId259" xr:uid="{7C678213-A1BB-4186-B5AE-F630EB21FAAF}"/>
+    <hyperlink ref="C343" r:id="rId260" xr:uid="{C895D51B-A7A6-4740-BC5F-23A1163D7976}"/>
+    <hyperlink ref="B344" r:id="rId261" xr:uid="{89C4A551-569F-45A0-8F08-C9A140538C69}"/>
+    <hyperlink ref="C344" r:id="rId262" xr:uid="{28F63694-35DA-456E-8591-FC18911D2A9E}"/>
+    <hyperlink ref="B122" r:id="rId263" xr:uid="{992E39C6-F0E1-4B49-8181-B33506D434F3}"/>
+    <hyperlink ref="C122" r:id="rId264" xr:uid="{271C3179-B10D-4BE5-825E-96B38E8D3387}"/>
+    <hyperlink ref="B345" r:id="rId265" xr:uid="{2CC3A09E-7160-4B25-A08B-F99788BAD29B}"/>
+    <hyperlink ref="C345" r:id="rId266" xr:uid="{5733994D-33FD-4038-AF3D-3EB68DC45CCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId165"/>
-  <drawing r:id="rId166"/>
+  <pageSetup orientation="portrait" r:id="rId267"/>
+  <drawing r:id="rId268"/>
 </worksheet>
 </file>
 
@@ -4622,10 +6775,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -4696,10 +6849,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
